--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H2">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J2">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>153.9163735320199</v>
+        <v>221.8308122860584</v>
       </c>
       <c r="R2">
-        <v>153.9163735320199</v>
+        <v>1996.477310574526</v>
       </c>
       <c r="S2">
-        <v>0.001033926336398231</v>
+        <v>0.001408698538141018</v>
       </c>
       <c r="T2">
-        <v>0.001033926336398231</v>
+        <v>0.001408698538141019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H3">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J3">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>5389.752082771605</v>
+        <v>6003.370533527273</v>
       </c>
       <c r="R3">
-        <v>5389.752082771605</v>
+        <v>54030.33480174546</v>
       </c>
       <c r="S3">
-        <v>0.03620541789776177</v>
+        <v>0.03812337523063849</v>
       </c>
       <c r="T3">
-        <v>0.03620541789776177</v>
+        <v>0.0381233752306385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H4">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J4">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>7371.166217797363</v>
+        <v>8193.849844155955</v>
       </c>
       <c r="R4">
-        <v>7371.166217797363</v>
+        <v>73744.6485974036</v>
       </c>
       <c r="S4">
-        <v>0.0495154784878306</v>
+        <v>0.05203363851151951</v>
       </c>
       <c r="T4">
-        <v>0.0495154784878306</v>
+        <v>0.05203363851151952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H5">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J5">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>5385.674261146318</v>
+        <v>6148.064605269025</v>
       </c>
       <c r="R5">
-        <v>5385.674261146318</v>
+        <v>55332.58144742123</v>
       </c>
       <c r="S5">
-        <v>0.03617802531387503</v>
+        <v>0.03904223012387772</v>
       </c>
       <c r="T5">
-        <v>0.03617802531387503</v>
+        <v>0.03904223012387772</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6059902285784</v>
+        <v>32.88947133333333</v>
       </c>
       <c r="H6">
-        <v>29.6059902285784</v>
+        <v>98.668414</v>
       </c>
       <c r="I6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="J6">
-        <v>0.1260128414031431</v>
+        <v>0.1342547118204999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>458.5059814275082</v>
+        <v>574.2646847000152</v>
       </c>
       <c r="R6">
-        <v>458.5059814275082</v>
+        <v>5168.382162300137</v>
       </c>
       <c r="S6">
-        <v>0.003079993367277443</v>
+        <v>0.003646769416323171</v>
       </c>
       <c r="T6">
-        <v>0.003079993367277443</v>
+        <v>0.003646769416323171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H7">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J7">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>229.2300944973407</v>
+        <v>300.4586507532142</v>
       </c>
       <c r="R7">
-        <v>229.2300944973407</v>
+        <v>2704.127856778928</v>
       </c>
       <c r="S7">
-        <v>0.001539842879331809</v>
+        <v>0.001908011144737066</v>
       </c>
       <c r="T7">
-        <v>0.001539842879331809</v>
+        <v>0.001908011144737067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H8">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J8">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>8027.043198194559</v>
+        <v>8131.262703709493</v>
       </c>
       <c r="R8">
-        <v>8027.043198194559</v>
+        <v>73181.36433338543</v>
       </c>
       <c r="S8">
-        <v>0.05392130268904161</v>
+        <v>0.05163618960735345</v>
       </c>
       <c r="T8">
-        <v>0.05392130268904161</v>
+        <v>0.05163618960735347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H9">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J9">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>10977.99467260564</v>
+        <v>11098.15648817447</v>
       </c>
       <c r="R9">
-        <v>10977.99467260564</v>
+        <v>99883.40839357025</v>
       </c>
       <c r="S9">
-        <v>0.0737441868748627</v>
+        <v>0.07047693987970938</v>
       </c>
       <c r="T9">
-        <v>0.0737441868748627</v>
+        <v>0.07047693987970939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H10">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J10">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>8020.970033819273</v>
+        <v>8327.243528552948</v>
       </c>
       <c r="R10">
-        <v>8020.970033819273</v>
+        <v>74945.19175697654</v>
       </c>
       <c r="S10">
-        <v>0.05388050647971839</v>
+        <v>0.05288073223249894</v>
       </c>
       <c r="T10">
-        <v>0.05388050647971839</v>
+        <v>0.05288073223249894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.0926704680482</v>
+        <v>44.54713066666667</v>
       </c>
       <c r="H11">
-        <v>44.0926704680482</v>
+        <v>133.641392</v>
       </c>
       <c r="I11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="J11">
-        <v>0.1876729218591654</v>
+        <v>0.1818412381722327</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>682.8602249283016</v>
+        <v>777.8125615736677</v>
       </c>
       <c r="R11">
-        <v>682.8602249283016</v>
+        <v>7000.313054163009</v>
       </c>
       <c r="S11">
-        <v>0.004587082936210895</v>
+        <v>0.004939365307933864</v>
       </c>
       <c r="T11">
-        <v>0.004587082936210895</v>
+        <v>0.004939365307933865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H12">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J12">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>463.7846602787878</v>
+        <v>624.7038956858316</v>
       </c>
       <c r="R12">
-        <v>463.7846602787878</v>
+        <v>5622.335061172485</v>
       </c>
       <c r="S12">
-        <v>0.003115452655724043</v>
+        <v>0.00396707497734271</v>
       </c>
       <c r="T12">
-        <v>0.003115452655724043</v>
+        <v>0.003967074977342711</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H13">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J13">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>16240.53556703047</v>
+        <v>16906.25806618713</v>
       </c>
       <c r="R13">
-        <v>16240.53556703047</v>
+        <v>152156.3225956841</v>
       </c>
       <c r="S13">
-        <v>0.1090950693200406</v>
+        <v>0.1073602930893175</v>
       </c>
       <c r="T13">
-        <v>0.1090950693200406</v>
+        <v>0.1073602930893175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H14">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J14">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>22210.98211795143</v>
+        <v>23074.92753399917</v>
       </c>
       <c r="R14">
-        <v>22210.98211795143</v>
+        <v>207674.3478059925</v>
       </c>
       <c r="S14">
-        <v>0.1492012762647551</v>
+        <v>0.146533370859849</v>
       </c>
       <c r="T14">
-        <v>0.1492012762647551</v>
+        <v>0.1465333708598491</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H15">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J15">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>16228.24817307906</v>
+        <v>17313.7350499668</v>
       </c>
       <c r="R15">
-        <v>16228.24817307906</v>
+        <v>155823.6154497012</v>
       </c>
       <c r="S15">
-        <v>0.109012529302234</v>
+        <v>0.1099479058084934</v>
       </c>
       <c r="T15">
-        <v>0.109012529302234</v>
+        <v>0.1099479058084934</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.20950906838939</v>
+        <v>92.62095133333332</v>
       </c>
       <c r="H16">
-        <v>89.20950906838939</v>
+        <v>277.862854</v>
       </c>
       <c r="I16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="J16">
-        <v>0.3797050404696765</v>
+        <v>0.3780784131119371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>1381.581672907015</v>
+        <v>1617.202686993189</v>
       </c>
       <c r="R16">
-        <v>1381.581672907015</v>
+        <v>14554.8241829387</v>
       </c>
       <c r="S16">
-        <v>0.009280712926922754</v>
+        <v>0.01026976837693439</v>
       </c>
       <c r="T16">
-        <v>0.009280712926922754</v>
+        <v>0.01026976837693439</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H17">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J17">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>314.9390335036217</v>
+        <v>420.8956911078279</v>
       </c>
       <c r="R17">
-        <v>314.9390335036217</v>
+        <v>3788.061219970451</v>
       </c>
       <c r="S17">
-        <v>0.002115588833253392</v>
+        <v>0.002672825919281521</v>
       </c>
       <c r="T17">
-        <v>0.002115588833253392</v>
+        <v>0.002672825919281522</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H18">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J18">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>11028.34788021493</v>
+        <v>11390.63038017886</v>
       </c>
       <c r="R18">
-        <v>11028.34788021493</v>
+        <v>102515.6734216097</v>
       </c>
       <c r="S18">
-        <v>0.07408243228874999</v>
+        <v>0.0723342451830849</v>
       </c>
       <c r="T18">
-        <v>0.07408243228874999</v>
+        <v>0.07233424518308491</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H19">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J19">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>15082.65762215806</v>
+        <v>15546.78566718901</v>
       </c>
       <c r="R19">
-        <v>15082.65762215806</v>
+        <v>139921.0710047011</v>
       </c>
       <c r="S19">
-        <v>0.1013170761535814</v>
+        <v>0.0987271967156625</v>
       </c>
       <c r="T19">
-        <v>0.1013170761535814</v>
+        <v>0.09872719671566252</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H20">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J20">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>11020.00396480166</v>
+        <v>11665.16893817871</v>
       </c>
       <c r="R20">
-        <v>11020.00396480166</v>
+        <v>104986.5204436084</v>
       </c>
       <c r="S20">
-        <v>0.0740263824111672</v>
+        <v>0.07407765522307076</v>
       </c>
       <c r="T20">
-        <v>0.0740263824111672</v>
+        <v>0.07407765522307076</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.5788827695217</v>
+        <v>62.40357966666667</v>
       </c>
       <c r="H21">
-        <v>60.5788827695217</v>
+        <v>187.210739</v>
       </c>
       <c r="I21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="J21">
-        <v>0.2578436690641942</v>
+        <v>0.2547312031806635</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>938.1810871237063</v>
+        <v>1089.594041759826</v>
       </c>
       <c r="R21">
-        <v>938.1810871237063</v>
+        <v>9806.346375838437</v>
       </c>
       <c r="S21">
-        <v>0.00630218937744221</v>
+        <v>0.006919280139563807</v>
       </c>
       <c r="T21">
-        <v>0.00630218937744221</v>
+        <v>0.006919280139563808</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H22">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J22">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>59.56387473699123</v>
+        <v>84.42399957905999</v>
       </c>
       <c r="R22">
-        <v>59.56387473699123</v>
+        <v>759.81599621154</v>
       </c>
       <c r="S22">
-        <v>0.0004001176572399476</v>
+        <v>0.000536120133922956</v>
       </c>
       <c r="T22">
-        <v>0.0004001176572399476</v>
+        <v>0.0005361201339229561</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H23">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J23">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>2085.772361670535</v>
+        <v>2284.75271839998</v>
       </c>
       <c r="R23">
-        <v>2085.772361670535</v>
+        <v>20562.77446559982</v>
       </c>
       <c r="S23">
-        <v>0.01401108229732341</v>
+        <v>0.01450893039274169</v>
       </c>
       <c r="T23">
-        <v>0.01401108229732341</v>
+        <v>0.01450893039274169</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H24">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J24">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>2852.556951460949</v>
+        <v>3118.40167136862</v>
       </c>
       <c r="R24">
-        <v>2852.556951460949</v>
+        <v>28065.61504231758</v>
       </c>
       <c r="S24">
-        <v>0.01916192339067658</v>
+        <v>0.01980287513047874</v>
       </c>
       <c r="T24">
-        <v>0.01916192339067658</v>
+        <v>0.01980287513047874</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H25">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J25">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>2084.194291378762</v>
+        <v>2339.820146256061</v>
       </c>
       <c r="R25">
-        <v>2084.194291378762</v>
+        <v>21058.38131630454</v>
       </c>
       <c r="S25">
-        <v>0.01400048168091133</v>
+        <v>0.01485862665143822</v>
       </c>
       <c r="T25">
-        <v>0.01400048168091133</v>
+        <v>0.01485862665143822</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.4571793303899</v>
+        <v>12.51702</v>
       </c>
       <c r="H26">
-        <v>11.4571793303899</v>
+        <v>37.55106</v>
       </c>
       <c r="I26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="J26">
-        <v>0.04876552720382077</v>
+        <v>0.0510944337146668</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>177.4365664756766</v>
+        <v>218.55269337816</v>
       </c>
       <c r="R26">
-        <v>177.4365664756766</v>
+        <v>1966.97424040344</v>
       </c>
       <c r="S26">
-        <v>0.0011919221776695</v>
+        <v>0.001387881406085197</v>
       </c>
       <c r="T26">
-        <v>0.0011919221776695</v>
+        <v>0.001387881406085198</v>
       </c>
     </row>
   </sheetData>
